--- a/MSFT/MSFT.xlsx
+++ b/MSFT/MSFT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/MSFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1266" documentId="11_C659D9006E67538B8A2798834A02A8E59793F41D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8963C081-163E-4999-8E18-7C45D34F7ECB}"/>
+  <xr:revisionPtr revIDLastSave="1268" documentId="11_C659D9006E67538B8A2798834A02A8E59793F41D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9757DF13-F793-4ECC-8BDE-DC7D222B5641}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="2060" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8856,7 +8856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8952,12 +8952,10 @@
     <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9662,11 +9660,11 @@
     <v>5</v>
     <v>366.78</v>
     <v>213.43100000000001</v>
-    <v>0.90690000000000004</v>
-    <v>-5.4</v>
-    <v>2.114E-3</v>
-    <v>-1.7006E-2</v>
-    <v>0.66</v>
+    <v>0.88249999999999995</v>
+    <v>-12.78</v>
+    <v>5.215E-3</v>
+    <v>-3.7513999999999999E-2</v>
+    <v>1.71</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -9674,26 +9672,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>315.88</v>
+    <v>341.63</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45195.999969964847</v>
+    <v>45225.919562233597</v>
     <v>4</v>
-    <v>310.02</v>
-    <v>2319126534960</v>
+    <v>326.94</v>
+    <v>2435904974590</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>315.13</v>
-    <v>32.787799999999997</v>
-    <v>317.54000000000002</v>
-    <v>312.14</v>
-    <v>312.8</v>
-    <v>7429764000</v>
+    <v>340.54</v>
+    <v>32.99</v>
+    <v>340.67</v>
+    <v>327.89</v>
+    <v>329.6</v>
+    <v>7429031000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>26297573</v>
-    <v>20369214</v>
+    <v>37649224</v>
+    <v>23782722</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -9878,9 +9876,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -10357,7 +10355,7 @@
       </c>
       <c r="B2" s="18">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>312.14</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -10366,7 +10364,7 @@
       </c>
       <c r="B3" s="9">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>7429.7640000000001</v>
+        <v>7429.0309999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -10375,7 +10373,7 @@
       </c>
       <c r="B4" s="9">
         <f>B2*B3</f>
-        <v>2319126.5349599998</v>
+        <v>2435904.9745899998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -10402,7 +10400,7 @@
       </c>
       <c r="B7" s="9">
         <f>B4-B5+B6</f>
-        <v>2267734.5349599998</v>
+        <v>2384512.9745899998</v>
       </c>
     </row>
   </sheetData>
@@ -10475,10 +10473,10 @@
   <dimension ref="A1:CK152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AU44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="AV44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BL68" sqref="BL68"/>
+      <selection pane="bottomRight" activeCell="BI47" sqref="BI47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10607,13 +10605,13 @@
       <c r="AN1" s="36" t="s">
         <v>2819</v>
       </c>
-      <c r="AO1" s="90" t="s">
+      <c r="AO1" t="s">
         <v>2820</v>
       </c>
-      <c r="AP1" s="90" t="s">
+      <c r="AP1" t="s">
         <v>2821</v>
       </c>
-      <c r="AQ1" s="90" t="s">
+      <c r="AQ1" t="s">
         <v>2822</v>
       </c>
     </row>
@@ -10713,7 +10711,7 @@
       <c r="AM2" s="29">
         <v>45134</v>
       </c>
-      <c r="AN2" s="88"/>
+      <c r="AN2" s="87"/>
       <c r="AZ2" s="29">
         <v>42216</v>
       </c>
@@ -10842,7 +10840,7 @@
       <c r="AL3" s="33">
         <v>45016</v>
       </c>
-      <c r="AN3" s="89"/>
+      <c r="AN3" s="88"/>
       <c r="AZ3" s="32">
         <f>2015</f>
         <v>2015</v>
@@ -10993,7 +10991,7 @@
       <c r="AI5" s="29"/>
       <c r="AJ5" s="50"/>
       <c r="AK5" s="29"/>
-      <c r="AN5" s="88"/>
+      <c r="AN5" s="87"/>
     </row>
     <row r="6" spans="2:89" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
@@ -11029,7 +11027,7 @@
       <c r="AI6" s="29"/>
       <c r="AJ6" s="50"/>
       <c r="AK6" s="29"/>
-      <c r="AN6" s="88"/>
+      <c r="AN6" s="87"/>
     </row>
     <row r="7" spans="2:89" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="31" t="s">
@@ -11065,7 +11063,7 @@
       <c r="AI7" s="33"/>
       <c r="AJ7" s="38"/>
       <c r="AK7" s="33"/>
-      <c r="AN7" s="89"/>
+      <c r="AN7" s="88"/>
     </row>
     <row r="8" spans="2:89" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
@@ -12714,7 +12712,7 @@
         <f t="shared" si="62"/>
         <v>0.32143203648006208</v>
       </c>
-      <c r="L26" s="86">
+      <c r="L26" s="85">
         <f t="shared" si="62"/>
         <v>0.31740240788033564</v>
       </c>
@@ -12730,7 +12728,7 @@
         <f t="shared" si="62"/>
         <v>0.33545304430313039</v>
       </c>
-      <c r="P26" s="86">
+      <c r="P26" s="85">
         <f t="shared" si="62"/>
         <v>0.4173119243622137</v>
       </c>
@@ -12746,7 +12744,7 @@
         <f t="shared" si="62"/>
         <v>0.42964932690709656</v>
       </c>
-      <c r="T26" s="86">
+      <c r="T26" s="85">
         <f t="shared" si="62"/>
         <v>0.40520561133269151</v>
       </c>
@@ -12818,7 +12816,7 @@
         <f t="shared" si="62"/>
         <v>0.68686370788860029</v>
       </c>
-      <c r="AN26" s="86"/>
+      <c r="AN26" s="85"/>
       <c r="BA26" s="56">
         <f t="shared" ref="BA26:BM26" si="63">BA16/(BA16+BA10)</f>
         <v>0.29490382069553006</v>
@@ -13054,10 +13052,10 @@
       <c r="B28" s="77" t="s">
         <v>2779</v>
       </c>
-      <c r="L28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="AN28" s="87"/>
+      <c r="L28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="AN28" s="86"/>
     </row>
     <row r="29" spans="2:65" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="26" t="s">
@@ -13257,7 +13255,7 @@
         <f t="shared" si="109"/>
         <v>0.52675773906504575</v>
       </c>
-      <c r="L30" s="86">
+      <c r="L30" s="85">
         <f t="shared" si="109"/>
         <v>0.54347271800101993</v>
       </c>
@@ -13273,7 +13271,7 @@
         <f t="shared" si="109"/>
         <v>0.62854777672658468</v>
       </c>
-      <c r="P30" s="86">
+      <c r="P30" s="85">
         <f t="shared" si="109"/>
         <v>0.64000966417008942</v>
       </c>
@@ -13289,7 +13287,7 @@
         <f t="shared" si="109"/>
         <v>0.63892025043621059</v>
       </c>
-      <c r="T30" s="86">
+      <c r="T30" s="85">
         <f t="shared" si="109"/>
         <v>0.63160020191822308</v>
       </c>
@@ -13361,7 +13359,7 @@
         <f t="shared" si="109"/>
         <v>0.67463403476669714</v>
       </c>
-      <c r="AN30" s="86"/>
+      <c r="AN30" s="85"/>
       <c r="BA30" s="56">
         <f t="shared" ref="BA30:BM30" si="110">BA17/(BA11+BA17)</f>
         <v>0.47852889247987551</v>
@@ -23317,7 +23315,7 @@
       <c r="AK119" s="9">
         <v>90225</v>
       </c>
-      <c r="AL119" s="85">
+      <c r="AL119" s="9">
         <v>92093</v>
       </c>
       <c r="AZ119" s="9"/>
@@ -23441,7 +23439,7 @@
       <c r="AK120" s="9">
         <v>99368</v>
       </c>
-      <c r="AL120" s="85">
+      <c r="AL120" s="9">
         <v>108234</v>
       </c>
       <c r="AZ120" s="9"/>

--- a/MSFT/MSFT.xlsx
+++ b/MSFT/MSFT.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/MSFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1268" documentId="11_C659D9006E67538B8A2798834A02A8E59793F41D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9757DF13-F793-4ECC-8BDE-DC7D222B5641}"/>
+  <xr:revisionPtr revIDLastSave="1989" documentId="11_C659D9006E67538B8A2798834A02A8E59793F41D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9F844B2-0133-488E-9F5C-E842895EEFDC}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
     <sheet name="Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="Income Statement" sheetId="5" r:id="rId5"/>
-    <sheet name="Balance Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Cash Flow" sheetId="7" r:id="rId7"/>
+    <sheet name="New Model" sheetId="8" r:id="rId4"/>
+    <sheet name="Summary" sheetId="4" r:id="rId5"/>
+    <sheet name="Income Statement" sheetId="5" r:id="rId6"/>
+    <sheet name="Balance Sheet" sheetId="6" r:id="rId7"/>
+    <sheet name="Cash Flow" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,9 +90,10 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
@@ -102,6 +104,20 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </cellMetadata>
   <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
@@ -111,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4369" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="2861">
   <si>
     <t xml:space="preserve">Price </t>
   </si>
@@ -8580,13 +8596,128 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>Fiscal Period</t>
+  </si>
+  <si>
+    <t>Income Statement *in millions, USD</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>G&amp;A</t>
+  </si>
+  <si>
+    <t>Total Operating Expense</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Income before tax</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income </t>
+  </si>
+  <si>
+    <t>EPS- Basic</t>
+  </si>
+  <si>
+    <t>EPS - Diluted</t>
+  </si>
+  <si>
+    <t>Shares - Basic</t>
+  </si>
+  <si>
+    <t>Shares - Diluted</t>
+  </si>
+  <si>
+    <t>Cash Flow *in millions, USD</t>
+  </si>
+  <si>
+    <t>Balance Sheet *in millions, USD</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Long Term Debt</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Total Equity &amp; Liabilities</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Productivity and Business Processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue </t>
+  </si>
+  <si>
+    <t>More Personal Computing</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Current Price</t>
+  </si>
+  <si>
+    <t>Earnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -8856,7 +8987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8956,6 +9087,11 @@
     <xf numFmtId="9" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9511,6 +9647,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>732118</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F46152-1EEF-8904-06F5-4A07CACB7496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17959294" y="44824"/>
+          <a:ext cx="7471" cy="15770411"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -9658,13 +9849,13 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>366.78</v>
-    <v>213.43100000000001</v>
-    <v>0.88249999999999995</v>
-    <v>-12.78</v>
-    <v>5.215E-3</v>
-    <v>-3.7513999999999999E-2</v>
-    <v>1.71</v>
+    <v>468.35</v>
+    <v>309.45</v>
+    <v>0.8982</v>
+    <v>1.46</v>
+    <v>-4.0539999999999994E-3</v>
+    <v>3.4329999999999999E-3</v>
+    <v>-1.73</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -9672,26 +9863,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>341.63</v>
+    <v>432.15</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45225.919562233597</v>
+    <v>45502.999960092187</v>
     <v>4</v>
-    <v>326.94</v>
-    <v>2435904974590</v>
+    <v>424.70420000000001</v>
+    <v>3171587939380</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>340.54</v>
-    <v>32.99</v>
-    <v>340.67</v>
-    <v>327.89</v>
-    <v>329.6</v>
-    <v>7429031000</v>
+    <v>431.58</v>
+    <v>36.846800000000002</v>
+    <v>425.27</v>
+    <v>426.73</v>
+    <v>425</v>
+    <v>7432306000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>37649224</v>
-    <v>23782722</v>
+    <v>15125836</v>
+    <v>19062591</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -9876,9 +10067,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -10355,7 +10546,7 @@
       </c>
       <c r="B2" s="18">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>327.89</v>
+        <v>426.73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -10364,7 +10555,7 @@
       </c>
       <c r="B3" s="9">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>7429.0309999999999</v>
+        <v>7432.3059999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -10373,7 +10564,7 @@
       </c>
       <c r="B4" s="9">
         <f>B2*B3</f>
-        <v>2435904.9745899998</v>
+        <v>3171587.9393799999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -10400,7 +10591,7 @@
       </c>
       <c r="B7" s="9">
         <f>B4-B5+B6</f>
-        <v>2384512.9745899998</v>
+        <v>3120195.9393799999</v>
       </c>
     </row>
   </sheetData>
@@ -10472,7 +10663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CK152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="AV44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -25045,6 +25236,4886 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3930BF-2912-4C03-A68B-6F8300113322}">
+  <dimension ref="B1:BS106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="R39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="AC61" sqref="AC61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="34" max="34" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:71" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="L1">
+        <f>M1-1</f>
+        <v>2011</v>
+      </c>
+      <c r="M1">
+        <f t="shared" ref="M1:V1" si="0">N1-1</f>
+        <v>2012</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="W1">
+        <f>X1-1</f>
+        <v>2022</v>
+      </c>
+      <c r="X1">
+        <v>2023</v>
+      </c>
+      <c r="Y1">
+        <f>X1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" ref="Z1:BS1" si="1">Y1+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="1"/>
+        <v>2041</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="1"/>
+        <v>2042</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="1"/>
+        <v>2043</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="1"/>
+        <v>2044</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="1"/>
+        <v>2045</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="1"/>
+        <v>2046</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="1"/>
+        <v>2047</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="1"/>
+        <v>2048</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="1"/>
+        <v>2049</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="1"/>
+        <v>2050</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" si="1"/>
+        <v>2051</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="1"/>
+        <v>2052</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="1"/>
+        <v>2054</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" si="1"/>
+        <v>2055</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" si="1"/>
+        <v>2056</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" si="1"/>
+        <v>2057</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" si="1"/>
+        <v>2058</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" si="1"/>
+        <v>2059</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" si="1"/>
+        <v>2060</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" si="1"/>
+        <v>2061</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" si="1"/>
+        <v>2062</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" si="1"/>
+        <v>2063</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" si="1"/>
+        <v>2064</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" si="1"/>
+        <v>2065</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" si="1"/>
+        <v>2066</v>
+      </c>
+      <c r="BP1">
+        <f t="shared" si="1"/>
+        <v>2067</v>
+      </c>
+      <c r="BQ1">
+        <f t="shared" si="1"/>
+        <v>2068</v>
+      </c>
+      <c r="BR1">
+        <f t="shared" si="1"/>
+        <v>2069</v>
+      </c>
+      <c r="BS1">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="2:71" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="89">
+        <v>40752</v>
+      </c>
+      <c r="M2" s="89">
+        <v>41116</v>
+      </c>
+      <c r="N2" s="89">
+        <v>41485</v>
+      </c>
+      <c r="O2" s="89">
+        <v>41851</v>
+      </c>
+      <c r="P2" s="89">
+        <v>42216</v>
+      </c>
+      <c r="Q2" s="89">
+        <v>42579</v>
+      </c>
+      <c r="R2" s="89">
+        <v>42949</v>
+      </c>
+      <c r="S2" s="89">
+        <v>43315</v>
+      </c>
+      <c r="T2" s="89">
+        <v>43678</v>
+      </c>
+      <c r="U2" s="89">
+        <v>44042</v>
+      </c>
+      <c r="V2" s="89">
+        <v>44406</v>
+      </c>
+      <c r="W2" s="89">
+        <v>44770</v>
+      </c>
+      <c r="X2" s="89">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:71" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="89">
+        <f>DATE(YEAR(M3)-1, MONTH(M3), DAY(M3))</f>
+        <v>40724</v>
+      </c>
+      <c r="M3" s="89">
+        <f t="shared" ref="M3:V3" si="2">DATE(YEAR(N3)-1, MONTH(N3), DAY(N3))</f>
+        <v>41090</v>
+      </c>
+      <c r="N3" s="89">
+        <f t="shared" si="2"/>
+        <v>41455</v>
+      </c>
+      <c r="O3" s="89">
+        <f t="shared" si="2"/>
+        <v>41820</v>
+      </c>
+      <c r="P3" s="89">
+        <f t="shared" si="2"/>
+        <v>42185</v>
+      </c>
+      <c r="Q3" s="89">
+        <f t="shared" si="2"/>
+        <v>42551</v>
+      </c>
+      <c r="R3" s="89">
+        <f t="shared" si="2"/>
+        <v>42916</v>
+      </c>
+      <c r="S3" s="89">
+        <f t="shared" si="2"/>
+        <v>43281</v>
+      </c>
+      <c r="T3" s="89">
+        <f t="shared" si="2"/>
+        <v>43646</v>
+      </c>
+      <c r="U3" s="89">
+        <f t="shared" si="2"/>
+        <v>44012</v>
+      </c>
+      <c r="V3" s="89">
+        <f t="shared" si="2"/>
+        <v>44377</v>
+      </c>
+      <c r="W3" s="89">
+        <f>DATE(YEAR(X3)-1, MONTH(X3), DAY(X3))</f>
+        <v>44742</v>
+      </c>
+      <c r="X3" s="89">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="9" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="P9" s="9">
+        <v>26430</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>26487</v>
+      </c>
+      <c r="R9" s="9">
+        <v>29870</v>
+      </c>
+      <c r="S9" s="9">
+        <v>35865</v>
+      </c>
+      <c r="T9" s="9">
+        <v>41160</v>
+      </c>
+      <c r="U9" s="9">
+        <v>46398</v>
+      </c>
+      <c r="V9" s="9">
+        <v>53915</v>
+      </c>
+      <c r="W9" s="9">
+        <v>63364</v>
+      </c>
+      <c r="X9" s="9">
+        <v>69274</v>
+      </c>
+    </row>
+    <row r="10" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="P10" s="9">
+        <v>13274</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>12418</v>
+      </c>
+      <c r="R10" s="9">
+        <v>11389</v>
+      </c>
+      <c r="S10" s="9">
+        <v>12924</v>
+      </c>
+      <c r="T10" s="9">
+        <v>16219</v>
+      </c>
+      <c r="U10" s="9">
+        <v>18724</v>
+      </c>
+      <c r="V10" s="9">
+        <v>24351</v>
+      </c>
+      <c r="W10" s="9">
+        <v>29690</v>
+      </c>
+      <c r="X10" s="9">
+        <v>34189</v>
+      </c>
+    </row>
+    <row r="11" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E11" s="25" t="e">
+        <f>E10/E9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="25" t="e">
+        <f t="shared" ref="F11:W11" si="3">F10/F9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" s="25" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.50223231176693151</v>
+      </c>
+      <c r="Q11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.46883376750858913</v>
+      </c>
+      <c r="R11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.38128557080682962</v>
+      </c>
+      <c r="S11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.3603513174404015</v>
+      </c>
+      <c r="T11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.39404761904761904</v>
+      </c>
+      <c r="U11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.40355187723608776</v>
+      </c>
+      <c r="V11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.45165538347398682</v>
+      </c>
+      <c r="W11" s="25">
+        <f t="shared" si="3"/>
+        <v>0.46856259074553375</v>
+      </c>
+      <c r="X11" s="25">
+        <f>X10/X9</f>
+        <v>0.49353292721656034</v>
+      </c>
+    </row>
+    <row r="12" spans="2:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="13" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="P13" s="9">
+        <v>23715</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>25042</v>
+      </c>
+      <c r="R13" s="9">
+        <v>27407</v>
+      </c>
+      <c r="S13" s="9">
+        <v>32219</v>
+      </c>
+      <c r="T13" s="9">
+        <v>38985</v>
+      </c>
+      <c r="U13" s="9">
+        <v>48366</v>
+      </c>
+      <c r="V13" s="9">
+        <v>60080</v>
+      </c>
+      <c r="W13" s="9">
+        <v>74965</v>
+      </c>
+      <c r="X13" s="9">
+        <v>87907</v>
+      </c>
+    </row>
+    <row r="14" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="P14" s="9">
+        <v>9803</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>9315</v>
+      </c>
+      <c r="R14" s="9">
+        <v>9127</v>
+      </c>
+      <c r="S14" s="9">
+        <v>11524</v>
+      </c>
+      <c r="T14" s="9">
+        <v>13920</v>
+      </c>
+      <c r="U14" s="9">
+        <v>18324</v>
+      </c>
+      <c r="V14" s="9">
+        <v>26126</v>
+      </c>
+      <c r="W14" s="9">
+        <v>33203</v>
+      </c>
+      <c r="X14" s="9">
+        <v>37884</v>
+      </c>
+    </row>
+    <row r="15" spans="2:71" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E15" s="25" t="e">
+        <f>E14/E13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="25" t="e">
+        <f t="shared" ref="F15:W15" si="4">F14/F13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O15" s="25" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.41336706725701033</v>
+      </c>
+      <c r="Q15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.37197508186247102</v>
+      </c>
+      <c r="R15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.33301711241653592</v>
+      </c>
+      <c r="S15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.35767714702504733</v>
+      </c>
+      <c r="T15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.35706040784917276</v>
+      </c>
+      <c r="U15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.37886118347599551</v>
+      </c>
+      <c r="V15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.43485352862849536</v>
+      </c>
+      <c r="W15" s="25">
+        <f t="shared" si="4"/>
+        <v>0.44291335956779831</v>
+      </c>
+      <c r="X15" s="25">
+        <f>X14/X13</f>
+        <v>0.43095544154617949</v>
+      </c>
+    </row>
+    <row r="16" spans="2:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="P17" s="9">
+        <v>43435</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>40434</v>
+      </c>
+      <c r="R17" s="9">
+        <v>39294</v>
+      </c>
+      <c r="S17" s="9">
+        <v>42276</v>
+      </c>
+      <c r="T17" s="9">
+        <v>45698</v>
+      </c>
+      <c r="U17" s="9">
+        <v>48251</v>
+      </c>
+      <c r="V17" s="9">
+        <v>54093</v>
+      </c>
+      <c r="W17" s="9">
+        <v>59941</v>
+      </c>
+      <c r="X17" s="9">
+        <v>54734</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>2849</v>
+      </c>
+      <c r="P18" s="9">
+        <v>5095</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>6202</v>
+      </c>
+      <c r="R18" s="9">
+        <v>8815</v>
+      </c>
+      <c r="S18" s="9">
+        <v>10610</v>
+      </c>
+      <c r="T18" s="9">
+        <v>12820</v>
+      </c>
+      <c r="U18" s="9">
+        <v>15911</v>
+      </c>
+      <c r="V18" s="9">
+        <v>19439</v>
+      </c>
+      <c r="W18" s="9">
+        <v>20490</v>
+      </c>
+      <c r="X18" s="9">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E19" s="25" t="e">
+        <f>E18/E17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="25" t="e">
+        <f t="shared" ref="F19:W19" si="5">F18/F17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" s="25" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.1173017152066306</v>
+      </c>
+      <c r="Q19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.15338576445565613</v>
+      </c>
+      <c r="R19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.22433450399552093</v>
+      </c>
+      <c r="S19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.25096981739048158</v>
+      </c>
+      <c r="T19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.28053744146352139</v>
+      </c>
+      <c r="U19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.3297548237342231</v>
+      </c>
+      <c r="V19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.359362579261642</v>
+      </c>
+      <c r="W19" s="25">
+        <f t="shared" si="5"/>
+        <v>0.34183613886988873</v>
+      </c>
+      <c r="X19" s="25">
+        <f>X18/X17</f>
+        <v>0.3005444513465122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="L22" s="11">
+        <v>69943</v>
+      </c>
+      <c r="M22" s="11">
+        <v>73723</v>
+      </c>
+      <c r="N22" s="11">
+        <v>77849</v>
+      </c>
+      <c r="O22" s="11">
+        <v>86833</v>
+      </c>
+      <c r="P22" s="11">
+        <v>93580</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>85320</v>
+      </c>
+      <c r="R22" s="11">
+        <v>96571</v>
+      </c>
+      <c r="S22" s="11">
+        <v>110360</v>
+      </c>
+      <c r="T22" s="11">
+        <v>125843</v>
+      </c>
+      <c r="U22" s="11">
+        <v>143015</v>
+      </c>
+      <c r="V22" s="11">
+        <v>168088</v>
+      </c>
+      <c r="W22" s="11">
+        <v>198270</v>
+      </c>
+      <c r="X22" s="11">
+        <v>211915</v>
+      </c>
+      <c r="Y22" s="11">
+        <f>X22*(1+Y41)</f>
+        <v>233106.50000000003</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" ref="Z22:AE22" si="6">Y22*(1+Z41)</f>
+        <v>256417.15000000005</v>
+      </c>
+      <c r="AA22" s="11">
+        <f t="shared" si="6"/>
+        <v>282058.86500000011</v>
+      </c>
+      <c r="AB22" s="11">
+        <f t="shared" si="6"/>
+        <v>310264.75150000013</v>
+      </c>
+      <c r="AC22" s="11">
+        <f t="shared" si="6"/>
+        <v>341291.22665000014</v>
+      </c>
+      <c r="AD22" s="11">
+        <f t="shared" si="6"/>
+        <v>375420.34931500017</v>
+      </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="6"/>
+        <v>412962.38424650021</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L23" s="10">
+        <v>15577</v>
+      </c>
+      <c r="M23" s="10">
+        <v>17530</v>
+      </c>
+      <c r="N23" s="10">
+        <v>20385</v>
+      </c>
+      <c r="O23" s="10">
+        <v>27078</v>
+      </c>
+      <c r="P23" s="10">
+        <v>33038</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>32780</v>
+      </c>
+      <c r="R23" s="10">
+        <v>34261</v>
+      </c>
+      <c r="S23" s="10">
+        <v>38353</v>
+      </c>
+      <c r="T23" s="10">
+        <v>42910</v>
+      </c>
+      <c r="U23" s="10">
+        <v>46078</v>
+      </c>
+      <c r="V23" s="10">
+        <v>52232</v>
+      </c>
+      <c r="W23" s="10">
+        <v>65650</v>
+      </c>
+      <c r="X23" s="10">
+        <v>65863</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="9">
+        <f>E22-E23</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:W24" si="7">F22-F23</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="7"/>
+        <v>54366</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="7"/>
+        <v>56193</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="7"/>
+        <v>57464</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="7"/>
+        <v>59755</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="7"/>
+        <v>60542</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="7"/>
+        <v>52540</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="7"/>
+        <v>62310</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="7"/>
+        <v>72007</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="7"/>
+        <v>82933</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="7"/>
+        <v>96937</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="7"/>
+        <v>115856</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="7"/>
+        <v>132620</v>
+      </c>
+      <c r="X24" s="9">
+        <f>X22-X23</f>
+        <v>146052</v>
+      </c>
+      <c r="Y24" s="9">
+        <f>Y22*Y46</f>
+        <v>151519.22500000003</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" ref="Z24:AE24" si="8">Z22*Z46</f>
+        <v>166671.14750000005</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" si="8"/>
+        <v>183338.26225000009</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" si="8"/>
+        <v>201672.08847500008</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" si="8"/>
+        <v>221839.29732250009</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" si="8"/>
+        <v>244023.22705475011</v>
+      </c>
+      <c r="AE24" s="9">
+        <f t="shared" si="8"/>
+        <v>268425.54976022517</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="9">
+        <v>9043</v>
+      </c>
+      <c r="M25" s="9">
+        <v>9811</v>
+      </c>
+      <c r="N25" s="9">
+        <v>10411</v>
+      </c>
+      <c r="O25" s="9">
+        <v>11381</v>
+      </c>
+      <c r="P25" s="9">
+        <v>12046</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>11988</v>
+      </c>
+      <c r="R25" s="9">
+        <v>13037</v>
+      </c>
+      <c r="S25" s="9">
+        <v>14726</v>
+      </c>
+      <c r="T25" s="9">
+        <v>16876</v>
+      </c>
+      <c r="U25" s="9">
+        <v>19269</v>
+      </c>
+      <c r="V25" s="9">
+        <v>20716</v>
+      </c>
+      <c r="W25" s="9">
+        <v>24512</v>
+      </c>
+      <c r="X25" s="9">
+        <v>27195</v>
+      </c>
+      <c r="Y25" s="9">
+        <f>Y$22*Y51</f>
+        <v>30303.845000000005</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" ref="Z25:AE25" si="9">Z$22*Z51</f>
+        <v>33334.229500000009</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" si="9"/>
+        <v>36667.652450000016</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" si="9"/>
+        <v>40334.417695000018</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" si="9"/>
+        <v>44367.859464500019</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="9"/>
+        <v>48804.645410950026</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" si="9"/>
+        <v>53685.10995204503</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="9" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L26" s="9">
+        <v>13940</v>
+      </c>
+      <c r="M26" s="9">
+        <v>13857</v>
+      </c>
+      <c r="N26" s="9">
+        <v>15276</v>
+      </c>
+      <c r="O26" s="9">
+        <v>15811</v>
+      </c>
+      <c r="P26" s="9">
+        <v>15713</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>14697</v>
+      </c>
+      <c r="R26" s="9">
+        <v>15461</v>
+      </c>
+      <c r="S26" s="9">
+        <v>17469</v>
+      </c>
+      <c r="T26" s="9">
+        <v>18213</v>
+      </c>
+      <c r="U26" s="9">
+        <v>19598</v>
+      </c>
+      <c r="V26" s="9">
+        <v>20117</v>
+      </c>
+      <c r="W26" s="9">
+        <v>21825</v>
+      </c>
+      <c r="X26" s="9">
+        <v>22759</v>
+      </c>
+      <c r="Y26" s="9">
+        <f>Y$22*Y52</f>
+        <v>32634.910000000007</v>
+      </c>
+      <c r="Z26" s="9">
+        <f t="shared" ref="Z26:AE26" si="10">Z$22*Z52</f>
+        <v>35898.401000000013</v>
+      </c>
+      <c r="AA26" s="9">
+        <f t="shared" si="10"/>
+        <v>36667.652450000016</v>
+      </c>
+      <c r="AB26" s="9">
+        <f t="shared" si="10"/>
+        <v>40334.417695000018</v>
+      </c>
+      <c r="AC26" s="9">
+        <f t="shared" si="10"/>
+        <v>44367.859464500019</v>
+      </c>
+      <c r="AD26" s="9">
+        <f t="shared" si="10"/>
+        <v>48804.645410950026</v>
+      </c>
+      <c r="AE26" s="9">
+        <f t="shared" si="10"/>
+        <v>53685.10995204503</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="10" t="s">
+        <v>2826</v>
+      </c>
+      <c r="L27" s="10">
+        <v>4222</v>
+      </c>
+      <c r="M27" s="10">
+        <f>4569+6193</f>
+        <v>10762</v>
+      </c>
+      <c r="N27" s="10">
+        <v>5013</v>
+      </c>
+      <c r="O27" s="10">
+        <f>4677+127</f>
+        <v>4804</v>
+      </c>
+      <c r="P27" s="10">
+        <f>4611+10011</f>
+        <v>14622</v>
+      </c>
+      <c r="Q27" s="10">
+        <f>4563+1110</f>
+        <v>5673</v>
+      </c>
+      <c r="R27" s="10">
+        <f>4481+306</f>
+        <v>4787</v>
+      </c>
+      <c r="S27" s="10">
+        <v>4754</v>
+      </c>
+      <c r="T27" s="10">
+        <v>4885</v>
+      </c>
+      <c r="U27" s="10">
+        <v>5111</v>
+      </c>
+      <c r="V27" s="10">
+        <v>5107</v>
+      </c>
+      <c r="W27" s="10">
+        <v>5900</v>
+      </c>
+      <c r="X27" s="10">
+        <v>7575</v>
+      </c>
+      <c r="Y27" s="9">
+        <f>Y$22*Y53</f>
+        <v>9324.260000000002</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" ref="Z27:AE27" si="11">Z$22*Z53</f>
+        <v>10256.686000000002</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" si="11"/>
+        <v>11282.354600000004</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="11"/>
+        <v>12410.590060000006</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" si="11"/>
+        <v>13651.649066000005</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" si="11"/>
+        <v>15016.813972600008</v>
+      </c>
+      <c r="AE27" s="9">
+        <f t="shared" si="11"/>
+        <v>16518.495369860007</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" s="65" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="65" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E28" s="65">
+        <f>SUM(E25:E27)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="65">
+        <f t="shared" ref="F28:W28" si="12">SUM(F25:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="65">
+        <f t="shared" si="12"/>
+        <v>27205</v>
+      </c>
+      <c r="M28" s="65">
+        <f t="shared" si="12"/>
+        <v>34430</v>
+      </c>
+      <c r="N28" s="65">
+        <f t="shared" si="12"/>
+        <v>30700</v>
+      </c>
+      <c r="O28" s="65">
+        <f t="shared" si="12"/>
+        <v>31996</v>
+      </c>
+      <c r="P28" s="65">
+        <f t="shared" si="12"/>
+        <v>42381</v>
+      </c>
+      <c r="Q28" s="65">
+        <f t="shared" si="12"/>
+        <v>32358</v>
+      </c>
+      <c r="R28" s="65">
+        <f t="shared" si="12"/>
+        <v>33285</v>
+      </c>
+      <c r="S28" s="65">
+        <f t="shared" si="12"/>
+        <v>36949</v>
+      </c>
+      <c r="T28" s="65">
+        <f t="shared" si="12"/>
+        <v>39974</v>
+      </c>
+      <c r="U28" s="65">
+        <f t="shared" si="12"/>
+        <v>43978</v>
+      </c>
+      <c r="V28" s="65">
+        <f t="shared" si="12"/>
+        <v>45940</v>
+      </c>
+      <c r="W28" s="65">
+        <f t="shared" si="12"/>
+        <v>52237</v>
+      </c>
+      <c r="X28" s="65">
+        <f>SUM(X25:X27)</f>
+        <v>57529</v>
+      </c>
+      <c r="Y28" s="65">
+        <f t="shared" ref="Y28:AE28" si="13">SUM(Y25:Y27)</f>
+        <v>72263.015000000014</v>
+      </c>
+      <c r="Z28" s="65">
+        <f t="shared" si="13"/>
+        <v>79489.31650000003</v>
+      </c>
+      <c r="AA28" s="65">
+        <f t="shared" si="13"/>
+        <v>84617.659500000038</v>
+      </c>
+      <c r="AB28" s="65">
+        <f t="shared" si="13"/>
+        <v>93079.425450000039</v>
+      </c>
+      <c r="AC28" s="65">
+        <f t="shared" si="13"/>
+        <v>102387.36799500004</v>
+      </c>
+      <c r="AD28" s="65">
+        <f t="shared" si="13"/>
+        <v>112626.10479450006</v>
+      </c>
+      <c r="AE28" s="65">
+        <f t="shared" si="13"/>
+        <v>123888.71527395007</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="E29" s="9">
+        <f>E24-E28</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" ref="F29:W29" si="14">F24-F28</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="14"/>
+        <v>27161</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="14"/>
+        <v>21763</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="14"/>
+        <v>26764</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="14"/>
+        <v>27759</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="14"/>
+        <v>18161</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="14"/>
+        <v>20182</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="14"/>
+        <v>29025</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="14"/>
+        <v>35058</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="14"/>
+        <v>42959</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="14"/>
+        <v>52959</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" si="14"/>
+        <v>69916</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="14"/>
+        <v>80383</v>
+      </c>
+      <c r="X29" s="9">
+        <f>X24-X28</f>
+        <v>88523</v>
+      </c>
+      <c r="Y29" s="9">
+        <f t="shared" ref="Y29:AE29" si="15">Y24-Y28</f>
+        <v>79256.210000000021</v>
+      </c>
+      <c r="Z29" s="9">
+        <f t="shared" si="15"/>
+        <v>87181.83100000002</v>
+      </c>
+      <c r="AA29" s="9">
+        <f t="shared" si="15"/>
+        <v>98720.602750000049</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" si="15"/>
+        <v>108592.66302500005</v>
+      </c>
+      <c r="AC29" s="9">
+        <f t="shared" si="15"/>
+        <v>119451.92932750005</v>
+      </c>
+      <c r="AD29" s="9">
+        <f t="shared" si="15"/>
+        <v>131397.12226025003</v>
+      </c>
+      <c r="AE29" s="9">
+        <f t="shared" si="15"/>
+        <v>144536.8344862751</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="10" t="s">
+        <v>2828</v>
+      </c>
+      <c r="L30" s="10">
+        <v>910</v>
+      </c>
+      <c r="M30" s="10">
+        <v>504</v>
+      </c>
+      <c r="N30" s="10">
+        <v>288</v>
+      </c>
+      <c r="O30" s="10">
+        <v>61</v>
+      </c>
+      <c r="P30" s="10">
+        <v>346</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>-431</v>
+      </c>
+      <c r="R30" s="10">
+        <v>876</v>
+      </c>
+      <c r="S30" s="10">
+        <v>1416</v>
+      </c>
+      <c r="T30" s="10">
+        <v>729</v>
+      </c>
+      <c r="U30" s="10">
+        <v>77</v>
+      </c>
+      <c r="V30" s="10">
+        <v>1186</v>
+      </c>
+      <c r="W30" s="10">
+        <v>333</v>
+      </c>
+      <c r="X30" s="10">
+        <v>788</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E31" s="9">
+        <f>E29+E30</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31:W31" si="16">F29+F30</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="16"/>
+        <v>28071</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="16"/>
+        <v>22267</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="16"/>
+        <v>27052</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="16"/>
+        <v>27820</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="16"/>
+        <v>18507</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="16"/>
+        <v>19751</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="16"/>
+        <v>29901</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="16"/>
+        <v>36474</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="16"/>
+        <v>43688</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="16"/>
+        <v>53036</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="16"/>
+        <v>71102</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="16"/>
+        <v>80716</v>
+      </c>
+      <c r="X31" s="9">
+        <f>X29+X30</f>
+        <v>89311</v>
+      </c>
+      <c r="Y31" s="9">
+        <f t="shared" ref="Y31:AE31" si="17">Y29+Y30</f>
+        <v>79256.210000000021</v>
+      </c>
+      <c r="Z31" s="9">
+        <f t="shared" si="17"/>
+        <v>87181.83100000002</v>
+      </c>
+      <c r="AA31" s="9">
+        <f t="shared" si="17"/>
+        <v>98720.602750000049</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" si="17"/>
+        <v>108592.66302500005</v>
+      </c>
+      <c r="AC31" s="9">
+        <f t="shared" si="17"/>
+        <v>119451.92932750005</v>
+      </c>
+      <c r="AD31" s="9">
+        <f t="shared" si="17"/>
+        <v>131397.12226025003</v>
+      </c>
+      <c r="AE31" s="9">
+        <f t="shared" si="17"/>
+        <v>144536.8344862751</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>2830</v>
+      </c>
+      <c r="L32" s="10">
+        <v>4921</v>
+      </c>
+      <c r="M32" s="10">
+        <v>5289</v>
+      </c>
+      <c r="N32" s="10">
+        <v>5189</v>
+      </c>
+      <c r="O32" s="10">
+        <v>5746</v>
+      </c>
+      <c r="P32" s="10">
+        <v>6314</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>2953</v>
+      </c>
+      <c r="R32" s="10">
+        <v>4412</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1903</v>
+      </c>
+      <c r="T32" s="10">
+        <v>4448</v>
+      </c>
+      <c r="U32" s="10">
+        <v>8755</v>
+      </c>
+      <c r="V32" s="10">
+        <v>9831</v>
+      </c>
+      <c r="W32" s="10">
+        <v>10978</v>
+      </c>
+      <c r="X32" s="10">
+        <v>16950</v>
+      </c>
+      <c r="Y32" s="10">
+        <f>Y31*Y49</f>
+        <v>15851.242000000006</v>
+      </c>
+      <c r="Z32" s="10">
+        <f t="shared" ref="Z32:AE32" si="18">Z31*Z49</f>
+        <v>17436.366200000004</v>
+      </c>
+      <c r="AA32" s="10">
+        <f t="shared" si="18"/>
+        <v>19744.120550000011</v>
+      </c>
+      <c r="AB32" s="10">
+        <f t="shared" si="18"/>
+        <v>21718.532605000011</v>
+      </c>
+      <c r="AC32" s="10">
+        <f t="shared" si="18"/>
+        <v>23890.385865500011</v>
+      </c>
+      <c r="AD32" s="10">
+        <f t="shared" si="18"/>
+        <v>26279.424452050007</v>
+      </c>
+      <c r="AE32" s="10">
+        <f t="shared" si="18"/>
+        <v>28907.366897255022</v>
+      </c>
+    </row>
+    <row r="33" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>2831</v>
+      </c>
+      <c r="E33" s="9">
+        <f>E31-E32</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" ref="F33:W33" si="19">F31-F32</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="19"/>
+        <v>23150</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="19"/>
+        <v>16978</v>
+      </c>
+      <c r="N33" s="9">
+        <f t="shared" si="19"/>
+        <v>21863</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="19"/>
+        <v>22074</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="19"/>
+        <v>12193</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="19"/>
+        <v>16798</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="19"/>
+        <v>25489</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" si="19"/>
+        <v>34571</v>
+      </c>
+      <c r="T33" s="9">
+        <f t="shared" si="19"/>
+        <v>39240</v>
+      </c>
+      <c r="U33" s="9">
+        <f t="shared" si="19"/>
+        <v>44281</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" si="19"/>
+        <v>61271</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="19"/>
+        <v>69738</v>
+      </c>
+      <c r="X33" s="9">
+        <f>X31-X32</f>
+        <v>72361</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" ref="Y33:AE33" si="20">Y31-Y32</f>
+        <v>63404.968000000015</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" si="20"/>
+        <v>69745.464800000016</v>
+      </c>
+      <c r="AA33" s="9">
+        <f t="shared" si="20"/>
+        <v>78976.482200000042</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" si="20"/>
+        <v>86874.13042000003</v>
+      </c>
+      <c r="AC33" s="9">
+        <f t="shared" si="20"/>
+        <v>95561.543462000045</v>
+      </c>
+      <c r="AD33" s="9">
+        <f t="shared" si="20"/>
+        <v>105117.69780820003</v>
+      </c>
+      <c r="AE33" s="9">
+        <f t="shared" si="20"/>
+        <v>115629.46758902007</v>
+      </c>
+      <c r="AF33" s="9">
+        <f>AE33*(1+$AH$91)</f>
+        <v>116785.76226491027</v>
+      </c>
+      <c r="AG33" s="9">
+        <f t="shared" ref="AG33:BS33" si="21">AF33*(1+$AH$91)</f>
+        <v>117953.61988755937</v>
+      </c>
+      <c r="AH33" s="9">
+        <f t="shared" si="21"/>
+        <v>119133.15608643496</v>
+      </c>
+      <c r="AI33" s="9">
+        <f t="shared" si="21"/>
+        <v>120324.48764729931</v>
+      </c>
+      <c r="AJ33" s="9">
+        <f t="shared" si="21"/>
+        <v>121527.7325237723</v>
+      </c>
+      <c r="AK33" s="9">
+        <f t="shared" si="21"/>
+        <v>122743.00984901002</v>
+      </c>
+      <c r="AL33" s="9">
+        <f t="shared" si="21"/>
+        <v>123970.43994750013</v>
+      </c>
+      <c r="AM33" s="9">
+        <f t="shared" si="21"/>
+        <v>125210.14434697512</v>
+      </c>
+      <c r="AN33" s="9">
+        <f t="shared" si="21"/>
+        <v>126462.24579044488</v>
+      </c>
+      <c r="AO33" s="9">
+        <f t="shared" si="21"/>
+        <v>127726.86824834933</v>
+      </c>
+      <c r="AP33" s="9">
+        <f t="shared" si="21"/>
+        <v>129004.13693083283</v>
+      </c>
+      <c r="AQ33" s="9">
+        <f t="shared" si="21"/>
+        <v>130294.17830014115</v>
+      </c>
+      <c r="AR33" s="9">
+        <f t="shared" si="21"/>
+        <v>131597.12008314257</v>
+      </c>
+      <c r="AS33" s="9">
+        <f t="shared" si="21"/>
+        <v>132913.091283974</v>
+      </c>
+      <c r="AT33" s="9">
+        <f t="shared" si="21"/>
+        <v>134242.22219681376</v>
+      </c>
+      <c r="AU33" s="9">
+        <f t="shared" si="21"/>
+        <v>135584.64441878189</v>
+      </c>
+      <c r="AV33" s="9">
+        <f t="shared" si="21"/>
+        <v>136940.49086296972</v>
+      </c>
+      <c r="AW33" s="9">
+        <f t="shared" si="21"/>
+        <v>138309.8957715994</v>
+      </c>
+      <c r="AX33" s="9">
+        <f t="shared" si="21"/>
+        <v>139692.9947293154</v>
+      </c>
+      <c r="AY33" s="9">
+        <f t="shared" si="21"/>
+        <v>141089.92467660856</v>
+      </c>
+      <c r="AZ33" s="9">
+        <f t="shared" si="21"/>
+        <v>142500.82392337464</v>
+      </c>
+      <c r="BA33" s="9">
+        <f t="shared" si="21"/>
+        <v>143925.83216260839</v>
+      </c>
+      <c r="BB33" s="9">
+        <f t="shared" si="21"/>
+        <v>145365.09048423448</v>
+      </c>
+      <c r="BC33" s="9">
+        <f t="shared" si="21"/>
+        <v>146818.74138907681</v>
+      </c>
+      <c r="BD33" s="9">
+        <f t="shared" si="21"/>
+        <v>148286.92880296757</v>
+      </c>
+      <c r="BE33" s="9">
+        <f t="shared" si="21"/>
+        <v>149769.79809099724</v>
+      </c>
+      <c r="BF33" s="9">
+        <f t="shared" si="21"/>
+        <v>151267.49607190723</v>
+      </c>
+      <c r="BG33" s="9">
+        <f t="shared" si="21"/>
+        <v>152780.1710326263</v>
+      </c>
+      <c r="BH33" s="9">
+        <f t="shared" si="21"/>
+        <v>154307.97274295255</v>
+      </c>
+      <c r="BI33" s="9">
+        <f t="shared" si="21"/>
+        <v>155851.05247038207</v>
+      </c>
+      <c r="BJ33" s="9">
+        <f t="shared" si="21"/>
+        <v>157409.5629950859</v>
+      </c>
+      <c r="BK33" s="9">
+        <f t="shared" si="21"/>
+        <v>158983.65862503677</v>
+      </c>
+      <c r="BL33" s="9">
+        <f t="shared" si="21"/>
+        <v>160573.49521128714</v>
+      </c>
+      <c r="BM33" s="9">
+        <f t="shared" si="21"/>
+        <v>162179.2301634</v>
+      </c>
+      <c r="BN33" s="9">
+        <f t="shared" si="21"/>
+        <v>163801.02246503401</v>
+      </c>
+      <c r="BO33" s="9">
+        <f t="shared" si="21"/>
+        <v>165439.03268968436</v>
+      </c>
+      <c r="BP33" s="9">
+        <f t="shared" si="21"/>
+        <v>167093.42301658122</v>
+      </c>
+      <c r="BQ33" s="9">
+        <f t="shared" si="21"/>
+        <v>168764.35724674704</v>
+      </c>
+      <c r="BR33" s="9">
+        <f t="shared" si="21"/>
+        <v>170452.0008192145</v>
+      </c>
+      <c r="BS33" s="9">
+        <f t="shared" si="21"/>
+        <v>172156.52082740664</v>
+      </c>
+    </row>
+    <row r="35" spans="2:71" s="90" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="90" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E35" s="90" t="e">
+        <f>E33/E37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="90" t="e">
+        <f t="shared" ref="F35:W35" si="22">F33/F37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="90" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="90" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="90" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="90" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="90" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="90">
+        <f t="shared" si="22"/>
+        <v>2.7267373380447584</v>
+      </c>
+      <c r="M35" s="90">
+        <f t="shared" si="22"/>
+        <v>2.0221534063839925</v>
+      </c>
+      <c r="N35" s="90">
+        <f t="shared" si="22"/>
+        <v>2.610507462686567</v>
+      </c>
+      <c r="O35" s="90">
+        <f t="shared" si="22"/>
+        <v>2.6598385347632245</v>
+      </c>
+      <c r="P35" s="90">
+        <f t="shared" si="22"/>
+        <v>1.4911336676042559</v>
+      </c>
+      <c r="Q35" s="90">
+        <f t="shared" si="22"/>
+        <v>2.1196214511041012</v>
+      </c>
+      <c r="R35" s="90">
+        <f t="shared" si="22"/>
+        <v>3.2906016008262329</v>
+      </c>
+      <c r="S35" s="90">
+        <f t="shared" si="22"/>
+        <v>4.4897402597402598</v>
+      </c>
+      <c r="T35" s="90">
+        <f t="shared" si="22"/>
+        <v>5.114036230939659</v>
+      </c>
+      <c r="U35" s="90">
+        <f t="shared" si="22"/>
+        <v>5.8187910643889618</v>
+      </c>
+      <c r="V35" s="90">
+        <f t="shared" si="22"/>
+        <v>8.1185901682787858</v>
+      </c>
+      <c r="W35" s="90">
+        <f t="shared" si="22"/>
+        <v>9.3033617929562435</v>
+      </c>
+      <c r="X35" s="90">
+        <f>X33/X37</f>
+        <v>9.7181036798280953</v>
+      </c>
+      <c r="Y35" s="90">
+        <f t="shared" ref="Y35:AE35" si="23">Y33/Y37</f>
+        <v>8.5153059360730623</v>
+      </c>
+      <c r="Z35" s="90">
+        <f t="shared" si="23"/>
+        <v>9.3668365296803682</v>
+      </c>
+      <c r="AA35" s="90">
+        <f t="shared" si="23"/>
+        <v>10.606564893902773</v>
+      </c>
+      <c r="AB35" s="90">
+        <f t="shared" si="23"/>
+        <v>11.667221383293047</v>
+      </c>
+      <c r="AC35" s="90">
+        <f t="shared" si="23"/>
+        <v>12.833943521622354</v>
+      </c>
+      <c r="AD35" s="90">
+        <f t="shared" si="23"/>
+        <v>14.117337873784587</v>
+      </c>
+      <c r="AE35" s="90">
+        <f t="shared" si="23"/>
+        <v>15.52907166116305</v>
+      </c>
+    </row>
+    <row r="36" spans="2:71" s="90" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="90" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E36" s="90" t="e">
+        <f>E33/E38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="90" t="e">
+        <f t="shared" ref="F36:W36" si="24">F33/F38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="90" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="90" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="90" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="90" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="90" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="90">
+        <f t="shared" si="24"/>
+        <v>2.6940532991970207</v>
+      </c>
+      <c r="M36" s="90">
+        <f t="shared" si="24"/>
+        <v>1.9960028215377381</v>
+      </c>
+      <c r="N36" s="90">
+        <f t="shared" si="24"/>
+        <v>2.581227863046045</v>
+      </c>
+      <c r="O36" s="90">
+        <f t="shared" si="24"/>
+        <v>2.6281700202405047</v>
+      </c>
+      <c r="P36" s="90">
+        <f t="shared" si="24"/>
+        <v>1.4772231645262903</v>
+      </c>
+      <c r="Q36" s="90">
+        <f t="shared" si="24"/>
+        <v>2.0963434419069014</v>
+      </c>
+      <c r="R36" s="90">
+        <f t="shared" si="24"/>
+        <v>3.2544688457609805</v>
+      </c>
+      <c r="S36" s="90">
+        <f t="shared" si="24"/>
+        <v>4.4355914806261225</v>
+      </c>
+      <c r="T36" s="90">
+        <f t="shared" si="24"/>
+        <v>5.0612666064749128</v>
+      </c>
+      <c r="U36" s="90">
+        <f t="shared" si="24"/>
+        <v>5.7635038396459715</v>
+      </c>
+      <c r="V36" s="90">
+        <f t="shared" si="24"/>
+        <v>8.0534963196635125</v>
+      </c>
+      <c r="W36" s="90">
+        <f t="shared" si="24"/>
+        <v>9.2490716180371351</v>
+      </c>
+      <c r="X36" s="90">
+        <f>X33/X38</f>
+        <v>9.6842880085653107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
+        <v>2834</v>
+      </c>
+      <c r="L37" s="9">
+        <v>8490</v>
+      </c>
+      <c r="M37" s="9">
+        <v>8396</v>
+      </c>
+      <c r="N37" s="9">
+        <v>8375</v>
+      </c>
+      <c r="O37" s="9">
+        <v>8299</v>
+      </c>
+      <c r="P37" s="9">
+        <v>8177</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>7925</v>
+      </c>
+      <c r="R37" s="9">
+        <v>7746</v>
+      </c>
+      <c r="S37" s="9">
+        <v>7700</v>
+      </c>
+      <c r="T37" s="9">
+        <v>7673</v>
+      </c>
+      <c r="U37" s="9">
+        <v>7610</v>
+      </c>
+      <c r="V37" s="9">
+        <v>7547</v>
+      </c>
+      <c r="W37" s="9">
+        <v>7496</v>
+      </c>
+      <c r="X37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="AC37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>7446</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="38" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L38" s="9">
+        <v>8593</v>
+      </c>
+      <c r="M38" s="9">
+        <v>8506</v>
+      </c>
+      <c r="N38" s="9">
+        <v>8470</v>
+      </c>
+      <c r="O38" s="9">
+        <v>8399</v>
+      </c>
+      <c r="P38" s="9">
+        <v>8254</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>8013</v>
+      </c>
+      <c r="R38" s="9">
+        <v>7832</v>
+      </c>
+      <c r="S38" s="9">
+        <v>7794</v>
+      </c>
+      <c r="T38" s="9">
+        <v>7753</v>
+      </c>
+      <c r="U38" s="9">
+        <v>7683</v>
+      </c>
+      <c r="V38" s="9">
+        <v>7608</v>
+      </c>
+      <c r="W38" s="9">
+        <v>7540</v>
+      </c>
+      <c r="X38" s="9">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="40" spans="2:71" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="23" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="41" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="E41" s="25" t="e">
+        <f>E22/D22-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" s="25" t="e">
+        <f t="shared" ref="F41:W41" si="25">F22/E22-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="25" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="25"/>
+        <v>5.4044007263057026E-2</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="25"/>
+        <v>5.5966252051598442E-2</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.11540289534868786</v>
+      </c>
+      <c r="P41" s="25">
+        <f t="shared" si="25"/>
+        <v>7.7700874091647165E-2</v>
+      </c>
+      <c r="Q41" s="25">
+        <f t="shared" si="25"/>
+        <v>-8.8266723658901425E-2</v>
+      </c>
+      <c r="R41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.1318682606657291</v>
+      </c>
+      <c r="S41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.14278613662486661</v>
+      </c>
+      <c r="T41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.14029539688292858</v>
+      </c>
+      <c r="U41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.13645574247276371</v>
+      </c>
+      <c r="V41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.17531727441177503</v>
+      </c>
+      <c r="W41" s="25">
+        <f t="shared" si="25"/>
+        <v>0.17956070629670173</v>
+      </c>
+      <c r="X41" s="25">
+        <f>X22/W22-1</f>
+        <v>6.8820295556564215E-2</v>
+      </c>
+      <c r="Y41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="Z41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AA41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AB41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AC41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AD41" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AE41" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:71" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="76" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="46" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="25" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E46" s="25" t="e">
+        <f>E24/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46" s="25" t="e">
+        <f t="shared" ref="F46:W46" si="26">F24/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="25" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="25" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="25" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="25" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="25" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.77729007906438097</v>
+      </c>
+      <c r="M46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.76221803236439101</v>
+      </c>
+      <c r="N46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.73814692545825888</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.68816003132449644</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.64695447745244705</v>
+      </c>
+      <c r="Q46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.61579934364744493</v>
+      </c>
+      <c r="R46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.64522475691460168</v>
+      </c>
+      <c r="S46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.65247372236317502</v>
+      </c>
+      <c r="T46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.65901957200638894</v>
+      </c>
+      <c r="U46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.67781001992797962</v>
+      </c>
+      <c r="V46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.68925800771024703</v>
+      </c>
+      <c r="W46" s="25">
+        <f t="shared" si="26"/>
+        <v>0.66888586271246275</v>
+      </c>
+      <c r="X46" s="25">
+        <f>X24/X22</f>
+        <v>0.68920085883491022</v>
+      </c>
+      <c r="Y46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="Z46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AA46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AB46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AC46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AD46" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AE46" s="25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="47" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="25" t="e">
+        <f>E29/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47" s="25" t="e">
+        <f t="shared" ref="F47:W47" si="27">F29/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="25" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="25" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="25" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" s="25" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" s="25" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.38833049769097694</v>
+      </c>
+      <c r="M47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.29519959849707689</v>
+      </c>
+      <c r="N47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.34379375457616668</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.31968260914629232</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.19406924556529173</v>
+      </c>
+      <c r="Q47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.23654477262072199</v>
+      </c>
+      <c r="R47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.30055606755651282</v>
+      </c>
+      <c r="S47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.31766944545125048</v>
+      </c>
+      <c r="T47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.3413698020549415</v>
+      </c>
+      <c r="U47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.37030381428521486</v>
+      </c>
+      <c r="V47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.41594878872971303</v>
+      </c>
+      <c r="W47" s="25">
+        <f t="shared" si="27"/>
+        <v>0.40542189943007012</v>
+      </c>
+      <c r="X47" s="25">
+        <f>X29/X22</f>
+        <v>0.41772880636104098</v>
+      </c>
+    </row>
+    <row r="48" spans="2:71" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="25" t="s">
+        <v>2852</v>
+      </c>
+      <c r="E48" s="25" t="e">
+        <f>E33/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F48" s="25" t="e">
+        <f t="shared" ref="F48:W48" si="28">F33/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K48" s="25" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.3309838010951775</v>
+      </c>
+      <c r="M48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.23029448069123612</v>
+      </c>
+      <c r="N48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.28083854641678119</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.25421210829983992</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.13029493481513144</v>
+      </c>
+      <c r="Q48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.19688232536333802</v>
+      </c>
+      <c r="R48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.26394052044609667</v>
+      </c>
+      <c r="S48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.31325661471547661</v>
+      </c>
+      <c r="T48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.31181710544090652</v>
+      </c>
+      <c r="U48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.30962486452470023</v>
+      </c>
+      <c r="V48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.36451739564989766</v>
+      </c>
+      <c r="W48" s="25">
+        <f t="shared" si="28"/>
+        <v>0.35173248600393403</v>
+      </c>
+      <c r="X48" s="25">
+        <f>X33/X22</f>
+        <v>0.34146237878394642</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="25" t="s">
+        <v>2853</v>
+      </c>
+      <c r="E49" s="25" t="e">
+        <f>E32/E31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="25" t="e">
+        <f t="shared" ref="F49:W49" si="29">F32/F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="25" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.17530547540166008</v>
+      </c>
+      <c r="M49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.23752638433556383</v>
+      </c>
+      <c r="N49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.19181576223569421</v>
+      </c>
+      <c r="O49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.20654205607476636</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.34116820662452046</v>
+      </c>
+      <c r="Q49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.14951141714343577</v>
+      </c>
+      <c r="R49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.14755359352530015</v>
+      </c>
+      <c r="S49" s="25">
+        <f t="shared" si="29"/>
+        <v>5.2174151450348191E-2</v>
+      </c>
+      <c r="T49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.10181285478850027</v>
+      </c>
+      <c r="U49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.16507655177615205</v>
+      </c>
+      <c r="V49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.13826615285083402</v>
+      </c>
+      <c r="W49" s="25">
+        <f t="shared" si="29"/>
+        <v>0.13600773080925715</v>
+      </c>
+      <c r="X49" s="25">
+        <f>X32/X31</f>
+        <v>0.18978625253328257</v>
+      </c>
+      <c r="Y49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="Z49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AA49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AB49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AC49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AD49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AE49" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="76" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="25" t="e">
+        <f>E25/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F51" s="25" t="e">
+        <f t="shared" ref="F51:W51" si="30">F25/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="25" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="25" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I51" s="25" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="25" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K51" s="25" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.12929099409519179</v>
+      </c>
+      <c r="M51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.13307922900587332</v>
+      </c>
+      <c r="N51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.13373325283561768</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.13106768164177213</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.12872408634323573</v>
+      </c>
+      <c r="Q51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.14050632911392405</v>
+      </c>
+      <c r="R51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.13499911981857907</v>
+      </c>
+      <c r="S51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.13343602754621239</v>
+      </c>
+      <c r="T51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.13410360528595155</v>
+      </c>
+      <c r="U51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.1347341187987274</v>
+      </c>
+      <c r="V51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.12324496692208843</v>
+      </c>
+      <c r="W51" s="25">
+        <f t="shared" si="30"/>
+        <v>0.12362939426035205</v>
+      </c>
+      <c r="X51" s="25">
+        <f>X25/X22</f>
+        <v>0.12832975485454073</v>
+      </c>
+      <c r="Y51" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="Z51" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AA51" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AB51" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AC51" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AD51" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AE51" s="25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="25" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E52" s="25" t="e">
+        <f>E26/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="25" t="e">
+        <f t="shared" ref="F52:W52" si="31">F26/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="25" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="25" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="25" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="25" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="25" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.1993051484780464</v>
+      </c>
+      <c r="M52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.18796033802205553</v>
+      </c>
+      <c r="N52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.19622602730927821</v>
+      </c>
+      <c r="O52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.18208515195835684</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.16790980978841633</v>
+      </c>
+      <c r="Q52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.17225738396624474</v>
+      </c>
+      <c r="R52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.16009982292820826</v>
+      </c>
+      <c r="S52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.15829104748097136</v>
+      </c>
+      <c r="T52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.14472795467368069</v>
+      </c>
+      <c r="U52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.13703457679264414</v>
+      </c>
+      <c r="V52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.1196813573842273</v>
+      </c>
+      <c r="W52" s="25">
+        <f t="shared" si="31"/>
+        <v>0.11007716749886519</v>
+      </c>
+      <c r="X52" s="25">
+        <f>X26/X22</f>
+        <v>0.10739683363612769</v>
+      </c>
+      <c r="Y52" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z52" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA52" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AB52" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AC52" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AD52" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AE52" s="25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="25" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E53" s="25" t="e">
+        <f>E27/E22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="25" t="e">
+        <f t="shared" ref="F53:W53" si="32">F27/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I53" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J53" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="25" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L53" s="25">
+        <f t="shared" si="32"/>
+        <v>6.0363438800165849E-2</v>
+      </c>
+      <c r="M53" s="25">
+        <f t="shared" si="32"/>
+        <v>0.14597886683938527</v>
+      </c>
+      <c r="N53" s="25">
+        <f t="shared" si="32"/>
+        <v>6.4393890737196369E-2</v>
+      </c>
+      <c r="O53" s="25">
+        <f t="shared" si="32"/>
+        <v>5.5324588578075158E-2</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" si="32"/>
+        <v>0.15625133575550332</v>
+      </c>
+      <c r="Q53" s="25">
+        <f t="shared" si="32"/>
+        <v>6.6490857946554155E-2</v>
+      </c>
+      <c r="R53" s="25">
+        <f t="shared" si="32"/>
+        <v>4.9569746611301528E-2</v>
+      </c>
+      <c r="S53" s="25">
+        <f t="shared" si="32"/>
+        <v>4.3077201884740846E-2</v>
+      </c>
+      <c r="T53" s="25">
+        <f t="shared" si="32"/>
+        <v>3.8818209991815199E-2</v>
+      </c>
+      <c r="U53" s="25">
+        <f t="shared" si="32"/>
+        <v>3.5737510051393209E-2</v>
+      </c>
+      <c r="V53" s="25">
+        <f t="shared" si="32"/>
+        <v>3.0382894674218265E-2</v>
+      </c>
+      <c r="W53" s="25">
+        <f t="shared" si="32"/>
+        <v>2.9757401523175468E-2</v>
+      </c>
+      <c r="X53" s="25">
+        <f>X27/X22</f>
+        <v>3.5745463983200811E-2</v>
+      </c>
+      <c r="Y53" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="Z53" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AA53" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AB53" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AC53" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AD53" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AE53" s="25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="22" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M56" s="9">
+        <v>63040</v>
+      </c>
+      <c r="N56" s="9">
+        <v>77022</v>
+      </c>
+      <c r="O56" s="9">
+        <v>85709</v>
+      </c>
+      <c r="P56" s="9">
+        <v>96526</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>113240</v>
+      </c>
+      <c r="R56" s="9">
+        <v>132981</v>
+      </c>
+      <c r="S56" s="9">
+        <v>133768</v>
+      </c>
+      <c r="T56" s="9">
+        <v>133819</v>
+      </c>
+      <c r="U56" s="9">
+        <v>136527</v>
+      </c>
+      <c r="V56" s="9">
+        <v>130334</v>
+      </c>
+      <c r="W56" s="9">
+        <v>104757</v>
+      </c>
+      <c r="X56" s="9">
+        <v>111262</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="9" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M57" s="9">
+        <v>1231</v>
+      </c>
+      <c r="N57" s="9">
+        <v>2999</v>
+      </c>
+      <c r="O57" s="9">
+        <v>2000</v>
+      </c>
+      <c r="P57" s="9">
+        <v>4985</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>12904</v>
+      </c>
+      <c r="R57" s="9">
+        <v>9072</v>
+      </c>
+      <c r="S57" s="9">
+        <v>3998</v>
+      </c>
+      <c r="T57" s="9">
+        <v>5516</v>
+      </c>
+      <c r="U57" s="9">
+        <v>3749</v>
+      </c>
+      <c r="V57" s="9">
+        <v>8072</v>
+      </c>
+      <c r="W57" s="9">
+        <v>2749</v>
+      </c>
+      <c r="X57" s="9">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
+        <v>2839</v>
+      </c>
+      <c r="M58" s="10">
+        <v>10713</v>
+      </c>
+      <c r="N58" s="10">
+        <v>12601</v>
+      </c>
+      <c r="O58" s="10">
+        <v>20645</v>
+      </c>
+      <c r="P58" s="10">
+        <v>27808</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>40557</v>
+      </c>
+      <c r="R58" s="10">
+        <v>76073</v>
+      </c>
+      <c r="S58" s="10">
+        <v>72242</v>
+      </c>
+      <c r="T58" s="10">
+        <v>66662</v>
+      </c>
+      <c r="U58" s="10">
+        <v>59578</v>
+      </c>
+      <c r="V58" s="10">
+        <v>50074</v>
+      </c>
+      <c r="W58" s="10">
+        <v>47032</v>
+      </c>
+      <c r="X58" s="10">
+        <v>41990</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="9" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E59" s="9">
+        <f>SUM(E56:E58)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
+        <f t="shared" ref="F59:W59" si="33">SUM(F56:F58)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <f t="shared" si="33"/>
+        <v>74984</v>
+      </c>
+      <c r="N59" s="9">
+        <f t="shared" si="33"/>
+        <v>92622</v>
+      </c>
+      <c r="O59" s="9">
+        <f t="shared" si="33"/>
+        <v>108354</v>
+      </c>
+      <c r="P59" s="9">
+        <f t="shared" si="33"/>
+        <v>129319</v>
+      </c>
+      <c r="Q59" s="9">
+        <f t="shared" si="33"/>
+        <v>166701</v>
+      </c>
+      <c r="R59" s="9">
+        <f t="shared" si="33"/>
+        <v>218126</v>
+      </c>
+      <c r="S59" s="9">
+        <f t="shared" si="33"/>
+        <v>210008</v>
+      </c>
+      <c r="T59" s="9">
+        <f t="shared" si="33"/>
+        <v>205997</v>
+      </c>
+      <c r="U59" s="9">
+        <f t="shared" si="33"/>
+        <v>199854</v>
+      </c>
+      <c r="V59" s="9">
+        <f t="shared" si="33"/>
+        <v>188480</v>
+      </c>
+      <c r="W59" s="9">
+        <f t="shared" si="33"/>
+        <v>154538</v>
+      </c>
+      <c r="X59" s="9">
+        <f>SUM(X56:X58)</f>
+        <v>158499</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="9" t="s">
+        <v>2765</v>
+      </c>
+      <c r="M61" s="9">
+        <v>85084</v>
+      </c>
+      <c r="N61" s="9">
+        <v>101466</v>
+      </c>
+      <c r="O61" s="9">
+        <v>114246</v>
+      </c>
+      <c r="P61" s="9">
+        <v>124712</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>139660</v>
+      </c>
+      <c r="R61" s="9">
+        <v>159851</v>
+      </c>
+      <c r="S61" s="9">
+        <v>169662</v>
+      </c>
+      <c r="T61" s="9">
+        <v>175552</v>
+      </c>
+      <c r="U61" s="9">
+        <v>181915</v>
+      </c>
+      <c r="V61" s="9">
+        <v>184406</v>
+      </c>
+      <c r="W61" s="9">
+        <v>169684</v>
+      </c>
+      <c r="X61" s="9">
+        <v>184257</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="10" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M62" s="10">
+        <f>M63-M61</f>
+        <v>57347</v>
+      </c>
+      <c r="N62" s="10">
+        <f>N63-N61</f>
+        <v>19805</v>
+      </c>
+      <c r="O62" s="10">
+        <f>O63-O61</f>
+        <v>58138</v>
+      </c>
+      <c r="P62" s="10">
+        <f>P63-P61</f>
+        <v>51511</v>
+      </c>
+      <c r="Q62" s="10">
+        <f>Q63-Q61</f>
+        <v>53808</v>
+      </c>
+      <c r="R62" s="10">
+        <f>R63-R61</f>
+        <v>81235</v>
+      </c>
+      <c r="S62" s="10">
+        <f>S63-S61</f>
+        <v>89186</v>
+      </c>
+      <c r="T62" s="10">
+        <f>T63-T61</f>
+        <v>111004</v>
+      </c>
+      <c r="U62" s="10">
+        <f>U63-U61</f>
+        <v>119396</v>
+      </c>
+      <c r="V62" s="10">
+        <f>V63-V61</f>
+        <v>149373</v>
+      </c>
+      <c r="W62" s="10">
+        <f>W63-W61</f>
+        <v>195156</v>
+      </c>
+      <c r="X62" s="10">
+        <f>X63-X61</f>
+        <v>227719</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L63" s="92"/>
+      <c r="M63" s="92">
+        <v>142431</v>
+      </c>
+      <c r="N63" s="92">
+        <v>121271</v>
+      </c>
+      <c r="O63" s="11">
+        <v>172384</v>
+      </c>
+      <c r="P63" s="11">
+        <v>176223</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>193468</v>
+      </c>
+      <c r="R63" s="11">
+        <v>241086</v>
+      </c>
+      <c r="S63" s="11">
+        <v>258848</v>
+      </c>
+      <c r="T63" s="11">
+        <v>286556</v>
+      </c>
+      <c r="U63" s="11">
+        <v>301311</v>
+      </c>
+      <c r="V63" s="11">
+        <v>333779</v>
+      </c>
+      <c r="W63" s="11">
+        <v>364840</v>
+      </c>
+      <c r="X63" s="11">
+        <v>411976</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="9" t="s">
+        <v>2769</v>
+      </c>
+      <c r="M64" s="9">
+        <v>32688</v>
+      </c>
+      <c r="N64" s="9">
+        <v>37417</v>
+      </c>
+      <c r="O64" s="9">
+        <v>45625</v>
+      </c>
+      <c r="P64" s="9">
+        <v>49858</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>59357</v>
+      </c>
+      <c r="R64" s="9">
+        <v>64527</v>
+      </c>
+      <c r="S64" s="9">
+        <v>58488</v>
+      </c>
+      <c r="T64" s="9">
+        <v>69420</v>
+      </c>
+      <c r="U64" s="9">
+        <v>72310</v>
+      </c>
+      <c r="V64" s="9">
+        <v>88657</v>
+      </c>
+      <c r="W64" s="9">
+        <v>95082</v>
+      </c>
+      <c r="X64" s="9">
+        <v>104149</v>
+      </c>
+    </row>
+    <row r="65" spans="2:71" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="10" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M65" s="10">
+        <f>M66-M64</f>
+        <v>30799</v>
+      </c>
+      <c r="N65" s="10">
+        <f>N66-N64</f>
+        <v>26070</v>
+      </c>
+      <c r="O65" s="10">
+        <f>O66-O64</f>
+        <v>36975</v>
+      </c>
+      <c r="P65" s="10">
+        <f>P66-P64</f>
+        <v>46282</v>
+      </c>
+      <c r="Q65" s="10">
+        <f>Q66-Q64</f>
+        <v>62114</v>
+      </c>
+      <c r="R65" s="10">
+        <f>R66-R64</f>
+        <v>104165</v>
+      </c>
+      <c r="S65" s="10">
+        <f>S66-S64</f>
+        <v>117642</v>
+      </c>
+      <c r="T65" s="10">
+        <f>T66-T64</f>
+        <v>114806</v>
+      </c>
+      <c r="U65" s="10">
+        <f>U66-U64</f>
+        <v>110697</v>
+      </c>
+      <c r="V65" s="10">
+        <f>V66-V64</f>
+        <v>103134</v>
+      </c>
+      <c r="W65" s="10">
+        <f>W66-W64</f>
+        <v>103216</v>
+      </c>
+      <c r="X65" s="10">
+        <f>X66-X64</f>
+        <v>101604</v>
+      </c>
+    </row>
+    <row r="66" spans="2:71" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="M66" s="69">
+        <v>63487</v>
+      </c>
+      <c r="N66" s="69">
+        <v>63487</v>
+      </c>
+      <c r="O66" s="69">
+        <v>82600</v>
+      </c>
+      <c r="P66" s="69">
+        <v>96140</v>
+      </c>
+      <c r="Q66" s="69">
+        <v>121471</v>
+      </c>
+      <c r="R66" s="69">
+        <v>168692</v>
+      </c>
+      <c r="S66" s="69">
+        <v>176130</v>
+      </c>
+      <c r="T66" s="69">
+        <v>184226</v>
+      </c>
+      <c r="U66" s="69">
+        <v>183007</v>
+      </c>
+      <c r="V66" s="69">
+        <v>191791</v>
+      </c>
+      <c r="W66" s="69">
+        <v>198298</v>
+      </c>
+      <c r="X66" s="69">
+        <v>205753</v>
+      </c>
+    </row>
+    <row r="67" spans="2:71" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="10" t="s">
+        <v>2843</v>
+      </c>
+      <c r="L67" s="10">
+        <f>L63-L66</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="10">
+        <f>M63-M66</f>
+        <v>78944</v>
+      </c>
+      <c r="N67" s="10">
+        <f>N63-N66</f>
+        <v>57784</v>
+      </c>
+      <c r="O67" s="10">
+        <f>O63-O66</f>
+        <v>89784</v>
+      </c>
+      <c r="P67" s="10">
+        <f>P63-P66</f>
+        <v>80083</v>
+      </c>
+      <c r="Q67" s="10">
+        <f>Q63-Q66</f>
+        <v>71997</v>
+      </c>
+      <c r="R67" s="10">
+        <f>R63-R66</f>
+        <v>72394</v>
+      </c>
+      <c r="S67" s="10">
+        <f>S63-S66</f>
+        <v>82718</v>
+      </c>
+      <c r="T67" s="10">
+        <f>T63-T66</f>
+        <v>102330</v>
+      </c>
+      <c r="U67" s="10">
+        <f>U63-U66</f>
+        <v>118304</v>
+      </c>
+      <c r="V67" s="10">
+        <f>V63-V66</f>
+        <v>141988</v>
+      </c>
+      <c r="W67" s="10">
+        <f>W63-W66</f>
+        <v>166542</v>
+      </c>
+      <c r="X67" s="10">
+        <f>X63-X66</f>
+        <v>206223</v>
+      </c>
+    </row>
+    <row r="68" spans="2:71" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="11" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E68" s="11">
+        <f>E67+E66</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" ref="F68:W68" si="34">F67+F66</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="11">
+        <f t="shared" si="34"/>
+        <v>142431</v>
+      </c>
+      <c r="N68" s="11">
+        <f t="shared" si="34"/>
+        <v>121271</v>
+      </c>
+      <c r="O68" s="11">
+        <f t="shared" si="34"/>
+        <v>172384</v>
+      </c>
+      <c r="P68" s="11">
+        <f t="shared" si="34"/>
+        <v>176223</v>
+      </c>
+      <c r="Q68" s="11">
+        <f t="shared" si="34"/>
+        <v>193468</v>
+      </c>
+      <c r="R68" s="11">
+        <f t="shared" si="34"/>
+        <v>241086</v>
+      </c>
+      <c r="S68" s="11">
+        <f t="shared" si="34"/>
+        <v>258848</v>
+      </c>
+      <c r="T68" s="11">
+        <f t="shared" si="34"/>
+        <v>286556</v>
+      </c>
+      <c r="U68" s="11">
+        <f t="shared" si="34"/>
+        <v>301311</v>
+      </c>
+      <c r="V68" s="11">
+        <f t="shared" si="34"/>
+        <v>333779</v>
+      </c>
+      <c r="W68" s="11">
+        <f t="shared" si="34"/>
+        <v>364840</v>
+      </c>
+      <c r="X68" s="11">
+        <f>X67+X66</f>
+        <v>411976</v>
+      </c>
+    </row>
+    <row r="70" spans="2:71" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="22" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="71" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="9" t="s">
+        <v>2845</v>
+      </c>
+      <c r="L71" s="9">
+        <v>26994</v>
+      </c>
+      <c r="M71" s="9">
+        <v>31626</v>
+      </c>
+      <c r="N71" s="9">
+        <v>28833</v>
+      </c>
+      <c r="O71" s="9">
+        <v>32231</v>
+      </c>
+      <c r="P71" s="9">
+        <v>29668</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>33325</v>
+      </c>
+      <c r="R71" s="9">
+        <v>39507</v>
+      </c>
+      <c r="S71" s="9">
+        <v>43884</v>
+      </c>
+      <c r="T71" s="9">
+        <v>52185</v>
+      </c>
+      <c r="U71" s="9">
+        <v>60675</v>
+      </c>
+      <c r="V71" s="9">
+        <v>76740</v>
+      </c>
+      <c r="W71" s="9">
+        <v>89035</v>
+      </c>
+      <c r="X71" s="9">
+        <v>87582</v>
+      </c>
+      <c r="Y71" s="9">
+        <f>X71*(1+Y82)</f>
+        <v>95464.38</v>
+      </c>
+      <c r="Z71" s="9">
+        <f t="shared" ref="Z71:AD71" si="35">Y71*(1+Z82)</f>
+        <v>104056.17420000001</v>
+      </c>
+      <c r="AA71" s="9">
+        <f t="shared" si="35"/>
+        <v>113421.22987800001</v>
+      </c>
+      <c r="AB71" s="9">
+        <f t="shared" si="35"/>
+        <v>123629.14056702002</v>
+      </c>
+      <c r="AC71" s="9">
+        <f t="shared" si="35"/>
+        <v>134755.76321805184</v>
+      </c>
+      <c r="AD71" s="9">
+        <f t="shared" si="35"/>
+        <v>146883.78190767652</v>
+      </c>
+    </row>
+    <row r="72" spans="2:71" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L72" s="10">
+        <v>-2355</v>
+      </c>
+      <c r="M72" s="10">
+        <v>-2305</v>
+      </c>
+      <c r="N72" s="10">
+        <v>-4257</v>
+      </c>
+      <c r="O72" s="10">
+        <v>-5485</v>
+      </c>
+      <c r="P72" s="10">
+        <v>-5944</v>
+      </c>
+      <c r="Q72" s="10">
+        <v>-8343</v>
+      </c>
+      <c r="R72" s="10">
+        <v>-8129</v>
+      </c>
+      <c r="S72" s="10">
+        <v>-11632</v>
+      </c>
+      <c r="T72" s="10">
+        <v>-13925</v>
+      </c>
+      <c r="U72" s="10">
+        <v>-15441</v>
+      </c>
+      <c r="V72" s="10">
+        <v>-20622</v>
+      </c>
+      <c r="W72" s="10">
+        <v>-23886</v>
+      </c>
+      <c r="X72" s="10">
+        <v>-28107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="9">
+        <f>SUM(E71:E72)</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" ref="F73:W73" si="36">SUM(F71:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="9">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="9">
+        <f t="shared" si="36"/>
+        <v>24639</v>
+      </c>
+      <c r="M73" s="9">
+        <f t="shared" si="36"/>
+        <v>29321</v>
+      </c>
+      <c r="N73" s="9">
+        <f t="shared" si="36"/>
+        <v>24576</v>
+      </c>
+      <c r="O73" s="9">
+        <f t="shared" si="36"/>
+        <v>26746</v>
+      </c>
+      <c r="P73" s="9">
+        <f t="shared" si="36"/>
+        <v>23724</v>
+      </c>
+      <c r="Q73" s="9">
+        <f t="shared" si="36"/>
+        <v>24982</v>
+      </c>
+      <c r="R73" s="9">
+        <f t="shared" si="36"/>
+        <v>31378</v>
+      </c>
+      <c r="S73" s="9">
+        <f t="shared" si="36"/>
+        <v>32252</v>
+      </c>
+      <c r="T73" s="9">
+        <f t="shared" si="36"/>
+        <v>38260</v>
+      </c>
+      <c r="U73" s="9">
+        <f t="shared" si="36"/>
+        <v>45234</v>
+      </c>
+      <c r="V73" s="9">
+        <f t="shared" si="36"/>
+        <v>56118</v>
+      </c>
+      <c r="W73" s="9">
+        <f t="shared" si="36"/>
+        <v>65149</v>
+      </c>
+      <c r="X73" s="9">
+        <f>SUM(X71:X72)</f>
+        <v>59475</v>
+      </c>
+      <c r="Y73" s="9">
+        <f>Y71*Y86</f>
+        <v>75416.86020000001</v>
+      </c>
+      <c r="Z73" s="9">
+        <f t="shared" ref="Z73:AD73" si="37">Z71*Z86</f>
+        <v>82204.377618000013</v>
+      </c>
+      <c r="AA73" s="9">
+        <f t="shared" si="37"/>
+        <v>89602.771603620015</v>
+      </c>
+      <c r="AB73" s="9">
+        <f t="shared" si="37"/>
+        <v>97667.021047945818</v>
+      </c>
+      <c r="AC73" s="9">
+        <f t="shared" si="37"/>
+        <v>106457.05294226095</v>
+      </c>
+      <c r="AD73" s="9">
+        <f t="shared" si="37"/>
+        <v>116038.18770706446</v>
+      </c>
+      <c r="AE73" s="9">
+        <f>AD73*(1+$AH$101)</f>
+        <v>117198.5695841351</v>
+      </c>
+      <c r="AF73" s="9">
+        <f t="shared" ref="AF73:BS73" si="38">AE73*(1+$AH$101)</f>
+        <v>118370.55527997646</v>
+      </c>
+      <c r="AG73" s="9">
+        <f t="shared" si="38"/>
+        <v>119554.26083277623</v>
+      </c>
+      <c r="AH73" s="9">
+        <f t="shared" si="38"/>
+        <v>120749.80344110398</v>
+      </c>
+      <c r="AI73" s="9">
+        <f t="shared" si="38"/>
+        <v>121957.30147551502</v>
+      </c>
+      <c r="AJ73" s="9">
+        <f t="shared" si="38"/>
+        <v>123176.87449027017</v>
+      </c>
+      <c r="AK73" s="9">
+        <f t="shared" si="38"/>
+        <v>124408.64323517287</v>
+      </c>
+      <c r="AL73" s="9">
+        <f t="shared" si="38"/>
+        <v>125652.7296675246</v>
+      </c>
+      <c r="AM73" s="9">
+        <f t="shared" si="38"/>
+        <v>126909.25696419986</v>
+      </c>
+      <c r="AN73" s="9">
+        <f t="shared" si="38"/>
+        <v>128178.34953384186</v>
+      </c>
+      <c r="AO73" s="9">
+        <f t="shared" si="38"/>
+        <v>129460.13302918027</v>
+      </c>
+      <c r="AP73" s="9">
+        <f t="shared" si="38"/>
+        <v>130754.73435947207</v>
+      </c>
+      <c r="AQ73" s="9">
+        <f t="shared" si="38"/>
+        <v>132062.28170306681</v>
+      </c>
+      <c r="AR73" s="9">
+        <f t="shared" si="38"/>
+        <v>133382.90452009748</v>
+      </c>
+      <c r="AS73" s="9">
+        <f t="shared" si="38"/>
+        <v>134716.73356529846</v>
+      </c>
+      <c r="AT73" s="9">
+        <f t="shared" si="38"/>
+        <v>136063.90090095144</v>
+      </c>
+      <c r="AU73" s="9">
+        <f t="shared" si="38"/>
+        <v>137424.53990996096</v>
+      </c>
+      <c r="AV73" s="9">
+        <f t="shared" si="38"/>
+        <v>138798.78530906056</v>
+      </c>
+      <c r="AW73" s="9">
+        <f t="shared" si="38"/>
+        <v>140186.77316215116</v>
+      </c>
+      <c r="AX73" s="9">
+        <f t="shared" si="38"/>
+        <v>141588.64089377268</v>
+      </c>
+      <c r="AY73" s="9">
+        <f t="shared" si="38"/>
+        <v>143004.5273027104</v>
+      </c>
+      <c r="AZ73" s="9">
+        <f t="shared" si="38"/>
+        <v>144434.57257573749</v>
+      </c>
+      <c r="BA73" s="9">
+        <f t="shared" si="38"/>
+        <v>145878.91830149488</v>
+      </c>
+      <c r="BB73" s="9">
+        <f t="shared" si="38"/>
+        <v>147337.70748450983</v>
+      </c>
+      <c r="BC73" s="9">
+        <f t="shared" si="38"/>
+        <v>148811.08455935493</v>
+      </c>
+      <c r="BD73" s="9">
+        <f t="shared" si="38"/>
+        <v>150299.19540494849</v>
+      </c>
+      <c r="BE73" s="9">
+        <f t="shared" si="38"/>
+        <v>151802.18735899797</v>
+      </c>
+      <c r="BF73" s="9">
+        <f t="shared" si="38"/>
+        <v>153320.20923258795</v>
+      </c>
+      <c r="BG73" s="9">
+        <f t="shared" si="38"/>
+        <v>154853.41132491382</v>
+      </c>
+      <c r="BH73" s="9">
+        <f t="shared" si="38"/>
+        <v>156401.94543816295</v>
+      </c>
+      <c r="BI73" s="9">
+        <f t="shared" si="38"/>
+        <v>157965.96489254458</v>
+      </c>
+      <c r="BJ73" s="9">
+        <f t="shared" si="38"/>
+        <v>159545.62454147002</v>
+      </c>
+      <c r="BK73" s="9">
+        <f t="shared" si="38"/>
+        <v>161141.08078688473</v>
+      </c>
+      <c r="BL73" s="9">
+        <f t="shared" si="38"/>
+        <v>162752.49159475358</v>
+      </c>
+      <c r="BM73" s="9">
+        <f t="shared" si="38"/>
+        <v>164380.01651070113</v>
+      </c>
+      <c r="BN73" s="9">
+        <f t="shared" si="38"/>
+        <v>166023.81667580814</v>
+      </c>
+      <c r="BO73" s="9">
+        <f t="shared" si="38"/>
+        <v>167684.05484256623</v>
+      </c>
+      <c r="BP73" s="9">
+        <f t="shared" si="38"/>
+        <v>169360.89539099188</v>
+      </c>
+      <c r="BQ73" s="9">
+        <f t="shared" si="38"/>
+        <v>171054.5043449018</v>
+      </c>
+      <c r="BR73" s="9">
+        <f t="shared" si="38"/>
+        <v>172765.04938835083</v>
+      </c>
+      <c r="BS73" s="9">
+        <f t="shared" si="38"/>
+        <v>174492.69988223433</v>
+      </c>
+    </row>
+    <row r="74" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="9" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L75" s="9">
+        <v>2422</v>
+      </c>
+      <c r="M75" s="9">
+        <v>1913</v>
+      </c>
+      <c r="N75" s="9">
+        <v>931</v>
+      </c>
+      <c r="O75" s="9">
+        <v>607</v>
+      </c>
+      <c r="P75" s="9">
+        <v>634</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>668</v>
+      </c>
+      <c r="R75" s="9">
+        <v>772</v>
+      </c>
+      <c r="S75" s="9">
+        <v>1002</v>
+      </c>
+      <c r="T75" s="9">
+        <v>1142</v>
+      </c>
+      <c r="U75" s="9">
+        <v>1343</v>
+      </c>
+      <c r="V75" s="9">
+        <v>1693</v>
+      </c>
+      <c r="W75" s="9">
+        <v>1841</v>
+      </c>
+      <c r="X75" s="9">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="76" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="9" t="s">
+        <v>2789</v>
+      </c>
+      <c r="L76" s="9">
+        <v>2166</v>
+      </c>
+      <c r="M76" s="9">
+        <v>2244</v>
+      </c>
+      <c r="N76" s="9">
+        <v>2406</v>
+      </c>
+      <c r="O76" s="9">
+        <v>2446</v>
+      </c>
+      <c r="P76" s="9">
+        <v>2574</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>2668</v>
+      </c>
+      <c r="R76" s="9">
+        <v>3266</v>
+      </c>
+      <c r="S76" s="9">
+        <v>3940</v>
+      </c>
+      <c r="T76" s="9">
+        <v>4652</v>
+      </c>
+      <c r="U76" s="9">
+        <v>5289</v>
+      </c>
+      <c r="V76" s="9">
+        <v>6118</v>
+      </c>
+      <c r="W76" s="9">
+        <v>7502</v>
+      </c>
+      <c r="X76" s="9">
+        <v>9611</v>
+      </c>
+    </row>
+    <row r="77" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="9" t="s">
+        <v>2790</v>
+      </c>
+      <c r="L77" s="9">
+        <v>-11555</v>
+      </c>
+      <c r="M77" s="9">
+        <v>-5029</v>
+      </c>
+      <c r="N77" s="9">
+        <v>-5360</v>
+      </c>
+      <c r="O77" s="9">
+        <v>-7316</v>
+      </c>
+      <c r="P77" s="9">
+        <v>-14443</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>-15969</v>
+      </c>
+      <c r="R77" s="9">
+        <v>-11788</v>
+      </c>
+      <c r="S77" s="9">
+        <v>-10721</v>
+      </c>
+      <c r="T77" s="9">
+        <v>-19543</v>
+      </c>
+      <c r="U77" s="9">
+        <v>-22968</v>
+      </c>
+      <c r="V77" s="9">
+        <v>-27385</v>
+      </c>
+      <c r="W77" s="9">
+        <v>-32696</v>
+      </c>
+      <c r="X77" s="9">
+        <v>-22245</v>
+      </c>
+    </row>
+    <row r="78" spans="2:71" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="9" t="s">
+        <v>2791</v>
+      </c>
+      <c r="L78" s="9">
+        <v>-5180</v>
+      </c>
+      <c r="M78" s="9">
+        <v>-6385</v>
+      </c>
+      <c r="N78" s="9">
+        <v>-7455</v>
+      </c>
+      <c r="O78" s="9">
+        <v>-8879</v>
+      </c>
+      <c r="P78" s="9">
+        <v>-9882</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>-11006</v>
+      </c>
+      <c r="R78" s="9">
+        <v>-11845</v>
+      </c>
+      <c r="S78" s="9">
+        <v>-12699</v>
+      </c>
+      <c r="T78" s="9">
+        <v>-13811</v>
+      </c>
+      <c r="U78" s="9">
+        <v>-15137</v>
+      </c>
+      <c r="V78" s="9">
+        <v>-16521</v>
+      </c>
+      <c r="W78" s="9">
+        <v>-18135</v>
+      </c>
+      <c r="X78" s="9">
+        <v>-19800</v>
+      </c>
+    </row>
+    <row r="81" spans="2:37" s="23" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="23" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="82" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="25" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E82" s="25" t="e">
+        <f>E71/D71-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F82" s="25" t="e">
+        <f t="shared" ref="F82:W82" si="39">F71/E71-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G82" s="25" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="25" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="25" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="25" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K82" s="25" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L82" s="25" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.17159368748610793</v>
+      </c>
+      <c r="N82" s="25">
+        <f t="shared" si="39"/>
+        <v>-8.8313413014608266E-2</v>
+      </c>
+      <c r="O82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.1178510734228142</v>
+      </c>
+      <c r="P82" s="25">
+        <f t="shared" si="39"/>
+        <v>-7.9519717042598748E-2</v>
+      </c>
+      <c r="Q82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.12326412296076583</v>
+      </c>
+      <c r="R82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.18550637659414848</v>
+      </c>
+      <c r="S82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.1107904928240564</v>
+      </c>
+      <c r="T82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.18915777960076574</v>
+      </c>
+      <c r="U82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.16269042828398961</v>
+      </c>
+      <c r="V82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.26477132262051906</v>
+      </c>
+      <c r="W82" s="25">
+        <f t="shared" si="39"/>
+        <v>0.16021631482929366</v>
+      </c>
+      <c r="X82" s="25">
+        <f>X71/W71-1</f>
+        <v>-1.6319424945246297E-2</v>
+      </c>
+      <c r="Y82" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="Z82" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AA82" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AB82" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AC82" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AD82" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AE82" s="25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="83" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="25" t="e">
+        <f>E73/D73-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F83" s="25" t="e">
+        <f t="shared" ref="F83:W83" si="40">F73/E73-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" s="25" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="25" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I83" s="25" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J83" s="25" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K83" s="25" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L83" s="25" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M83" s="25">
+        <f t="shared" si="40"/>
+        <v>0.19002394577702009</v>
+      </c>
+      <c r="N83" s="25">
+        <f t="shared" si="40"/>
+        <v>-0.1618294055455135</v>
+      </c>
+      <c r="O83" s="25">
+        <f t="shared" si="40"/>
+        <v>8.8297526041666741E-2</v>
+      </c>
+      <c r="P83" s="25">
+        <f t="shared" si="40"/>
+        <v>-0.11298885814701265</v>
+      </c>
+      <c r="Q83" s="25">
+        <f t="shared" si="40"/>
+        <v>5.3026471084134164E-2</v>
+      </c>
+      <c r="R83" s="25">
+        <f t="shared" si="40"/>
+        <v>0.25602433752301668</v>
+      </c>
+      <c r="S83" s="25">
+        <f t="shared" si="40"/>
+        <v>2.7853910383070835E-2</v>
+      </c>
+      <c r="T83" s="25">
+        <f t="shared" si="40"/>
+        <v>0.18628302120798712</v>
+      </c>
+      <c r="U83" s="25">
+        <f t="shared" si="40"/>
+        <v>0.18227914270778878</v>
+      </c>
+      <c r="V83" s="25">
+        <f t="shared" si="40"/>
+        <v>0.24061546624220709</v>
+      </c>
+      <c r="W83" s="25">
+        <f t="shared" si="40"/>
+        <v>0.16092875726148481</v>
+      </c>
+      <c r="X83" s="25">
+        <f>X73/W73-1</f>
+        <v>-8.7092664507513518E-2</v>
+      </c>
+      <c r="Y83" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="Z83" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AA83" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AB83" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AC83" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AD83" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AE83" s="25">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="2:37" s="76" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="76" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="86" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="25" t="e">
+        <f>E73/E71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F86" s="25" t="e">
+        <f t="shared" ref="F86:W86" si="41">F73/F71</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G86" s="25" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="25" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I86" s="25" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J86" s="25" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K86" s="25" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.91275839075350074</v>
+      </c>
+      <c r="M86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.92711692910896093</v>
+      </c>
+      <c r="N86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.85235667464363751</v>
+      </c>
+      <c r="O86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.82982222084328749</v>
+      </c>
+      <c r="P86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.7996494539571255</v>
+      </c>
+      <c r="Q86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.74964741185296324</v>
+      </c>
+      <c r="R86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.79423899562102918</v>
+      </c>
+      <c r="S86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.73493756266520827</v>
+      </c>
+      <c r="T86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.73316086998179553</v>
+      </c>
+      <c r="U86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.74551297898640301</v>
+      </c>
+      <c r="V86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.73127443315089913</v>
+      </c>
+      <c r="W86" s="25">
+        <f t="shared" si="41"/>
+        <v>0.73172347953052175</v>
+      </c>
+      <c r="X86" s="25">
+        <f>X73/X71</f>
+        <v>0.67907789271768171</v>
+      </c>
+      <c r="Y86" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="Z86" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="AA86" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="AB86" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="AC86" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="AD86" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="AE86" s="25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="89" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG89" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="90" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG90" s="91" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH90" s="91"/>
+      <c r="AI90" s="91"/>
+      <c r="AJ90" s="91"/>
+      <c r="AK90" s="91"/>
+    </row>
+    <row r="91" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG91" s="91" t="s">
+        <v>2855</v>
+      </c>
+      <c r="AH91" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="92" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG92" s="91" t="s">
+        <v>2856</v>
+      </c>
+      <c r="AH92" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG93" s="91" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AH93" s="93">
+        <f>NPV(AH92,AF33:BS33)</f>
+        <v>1254932.6494079244</v>
+      </c>
+    </row>
+    <row r="94" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG94" s="91" t="s">
+        <v>2858</v>
+      </c>
+      <c r="AH94" s="93">
+        <f>AH93/X37</f>
+        <v>168.53782559870055</v>
+      </c>
+    </row>
+    <row r="95" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG95" s="91" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AH95" s="18" cm="1">
+        <f t="array" ref="AH95">_FV(AG90,"Price")</f>
+        <v>426.73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="AG96" s="91"/>
+    </row>
+    <row r="99" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG100" s="91" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AH100" s="91"/>
+      <c r="AI100" s="91"/>
+      <c r="AJ100" s="91"/>
+      <c r="AK100" s="91"/>
+    </row>
+    <row r="101" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG101" s="91" t="s">
+        <v>2855</v>
+      </c>
+      <c r="AH101" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG102" s="91" t="s">
+        <v>2856</v>
+      </c>
+      <c r="AH102" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG103" s="91" t="s">
+        <v>2857</v>
+      </c>
+      <c r="AH103" s="93">
+        <f>NPV(AH102,AE73:BS73)</f>
+        <v>1262873.42261516</v>
+      </c>
+    </row>
+    <row r="104" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG104" s="91" t="s">
+        <v>2858</v>
+      </c>
+      <c r="AH104" s="93">
+        <f>AH103/X37</f>
+        <v>169.60427378661831</v>
+      </c>
+    </row>
+    <row r="105" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG105" s="91" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AH105" s="18" cm="1">
+        <f t="array" ref="AH105">_FV(AG100,"Price")</f>
+        <v>426.73</v>
+      </c>
+    </row>
+    <row r="106" spans="33:37" x14ac:dyDescent="0.35">
+      <c r="AG106" s="91"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
@@ -26471,11 +31542,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -29847,7 +34918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
@@ -34499,7 +39570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
